--- a/StructureDefinition-ext-R5-TestPlan.xlsx
+++ b/StructureDefinition-ext-R5-TestPlan.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1666,7 +1666,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.extension:concept.id</t>
@@ -1693,7 +1693,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>

--- a/StructureDefinition-ext-R5-TestPlan.xlsx
+++ b/StructureDefinition-ext-R5-TestPlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="619">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -390,6 +390,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.url</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -436,6 +439,9 @@
     <t>Extension.extension:version.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.version</t>
+  </si>
+  <si>
     <t>Extension.extension:version.value[x]</t>
   </si>
   <si>
@@ -464,6 +470,9 @@
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.versionAlgorithm</t>
   </si>
   <si>
     <t>Extension.extension:versionAlgorithm.value[x]</t>
@@ -500,6 +509,9 @@
     <t>Extension.extension:name.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.name</t>
+  </si>
+  <si>
     <t>Extension.extension:name.value[x]</t>
   </si>
   <si>
@@ -528,6 +540,9 @@
   </si>
   <si>
     <t>Extension.extension:title.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.title</t>
   </si>
   <si>
     <t>Extension.extension:title.value[x]</t>
@@ -561,6 +576,9 @@
     <t>Extension.extension:status.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.status</t>
+  </si>
+  <si>
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
@@ -604,6 +622,9 @@
     <t>Extension.extension:experimental.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.experimental</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental.value[x]</t>
   </si>
   <si>
@@ -639,6 +660,9 @@
     <t>Extension.extension:date.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.date</t>
+  </si>
+  <si>
     <t>Extension.extension:date.value[x]</t>
   </si>
   <si>
@@ -673,6 +697,9 @@
     <t>Extension.extension:publisher.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.publisher</t>
+  </si>
+  <si>
     <t>Extension.extension:publisher.value[x]</t>
   </si>
   <si>
@@ -704,6 +731,9 @@
     <t>Extension.extension:contact.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.contact</t>
+  </si>
+  <si>
     <t>Extension.extension:contact.value[x]</t>
   </si>
   <si>
@@ -738,6 +768,9 @@
     <t>Extension.extension:description.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.description</t>
+  </si>
+  <si>
     <t>Extension.extension:description.value[x]</t>
   </si>
   <si>
@@ -772,6 +805,9 @@
     <t>Extension.extension:useContext.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.useContext</t>
+  </si>
+  <si>
     <t>Extension.extension:useContext.value[x]</t>
   </si>
   <si>
@@ -807,6 +843,9 @@
     <t>Extension.extension:jurisdiction.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.jurisdiction</t>
+  </si>
+  <si>
     <t>Extension.extension:jurisdiction.value[x]</t>
   </si>
   <si>
@@ -850,6 +889,9 @@
     <t>Extension.extension:purpose.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.purpose</t>
+  </si>
+  <si>
     <t>Extension.extension:purpose.value[x]</t>
   </si>
   <si>
@@ -877,6 +919,9 @@
     <t>Extension.extension:copyright.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.copyright</t>
+  </si>
+  <si>
     <t>Extension.extension:copyright.value[x]</t>
   </si>
   <si>
@@ -907,6 +952,9 @@
     <t>Extension.extension:copyrightLabel.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.copyrightLabel</t>
+  </si>
+  <si>
     <t>Extension.extension:copyrightLabel.value[x]</t>
   </si>
   <si>
@@ -934,6 +982,9 @@
     <t>Extension.extension:category.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.category</t>
+  </si>
+  <si>
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
@@ -959,6 +1010,9 @@
   </si>
   <si>
     <t>Extension.extension:scope.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.scope</t>
   </si>
   <si>
     <t>Extension.extension:scope.value[x]</t>
@@ -992,6 +1046,9 @@
     <t>Extension.extension:testTools.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testTools</t>
+  </si>
+  <si>
     <t>Extension.extension:testTools.value[x]</t>
   </si>
   <si>
@@ -1046,6 +1103,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency.description</t>
+  </si>
+  <si>
     <t>Extension.extension:dependency.extension:description.value[x]</t>
   </si>
   <si>
@@ -1074,6 +1134,9 @@
   </si>
   <si>
     <t>Extension.extension:dependency.extension:predecessor.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.dependency.predecessor</t>
   </si>
   <si>
     <t>Extension.extension:dependency.extension:predecessor.value[x]</t>
@@ -1122,6 +1185,9 @@
     <t>Extension.extension:exitCriteria.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.exitCriteria</t>
+  </si>
+  <si>
     <t>Extension.extension:exitCriteria.value[x]</t>
   </si>
   <si>
@@ -1168,6 +1234,9 @@
   </si>
   <si>
     <t>Extension.extension:testCase.extension:sequence.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.sequence</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:sequence.value[x]</t>
@@ -1198,6 +1267,9 @@
     <t>Extension.extension:testCase.extension:scope.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.scope</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:scope.value[x]</t>
   </si>
   <si>
@@ -1249,6 +1321,9 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency.description</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:dependency.extension:description.value[x]</t>
   </si>
   <si>
@@ -1273,6 +1348,9 @@
     <t>Extension.extension:testCase.extension:dependency.extension:predecessor.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.dependency.predecessor</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:dependency.extension:predecessor.value[x]</t>
   </si>
   <si>
@@ -1330,6 +1408,9 @@
     <t>Extension.extension:testCase.extension:testRun.extension:narrative.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.narrative</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:testRun.extension:narrative.value[x]</t>
   </si>
   <si>
@@ -1387,6 +1468,9 @@
     <t>Extension.extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script.language</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:testRun.extension:script.extension:language.value[x]</t>
   </si>
   <si>
@@ -1415,6 +1499,9 @@
   </si>
   <si>
     <t>Extension.extension:testCase.extension:testRun.extension:script.extension:source.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testRun.script.source</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:testRun.extension:script.extension:source.value[x]</t>
@@ -1487,6 +1574,9 @@
     <t>Extension.extension:testCase.extension:testData.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData.type</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:testData.extension:type.value[x]</t>
   </si>
   <si>
@@ -1518,6 +1608,9 @@
     <t>Extension.extension:testCase.extension:testData.extension:content.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData.content</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:testData.extension:content.value[x]</t>
   </si>
   <si>
@@ -1542,6 +1635,9 @@
     <t>Extension.extension:testCase.extension:testData.extension:source.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.testData.source</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:testData.extension:source.value[x]</t>
   </si>
   <si>
@@ -1596,6 +1692,9 @@
     <t>Extension.extension:testCase.extension:assertion.extension:type.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion.type</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:assertion.extension:type.value[x]</t>
   </si>
   <si>
@@ -1665,8 +1764,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.extension:concept.id</t>
@@ -1693,8 +1792,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.extension:reference.id</t>
@@ -1712,6 +1811,9 @@
     <t>Extension.extension:testCase.extension:assertion.extension:object.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion.object</t>
+  </si>
+  <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.value[x]</t>
   </si>
   <si>
@@ -1782,6 +1884,9 @@
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:result.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-TestPlan.testCase.assertion.result</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:result.value[x]</t>
@@ -2950,7 +3055,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2992,7 +3097,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -3007,15 +3112,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3097,7 +3202,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -3109,21 +3214,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -3148,16 +3253,16 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -3226,7 +3331,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -3329,7 +3434,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -3434,7 +3539,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -3477,7 +3582,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -3519,7 +3624,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -3534,15 +3639,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3568,13 +3673,13 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3624,7 +3729,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3636,21 +3741,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -3675,16 +3780,16 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -3753,7 +3858,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3856,7 +3961,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3961,7 +4066,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -4004,7 +4109,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -4046,7 +4151,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -4061,15 +4166,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4092,16 +4197,16 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4151,7 +4256,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -4163,21 +4268,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4202,16 +4307,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4280,7 +4385,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -4383,7 +4488,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -4488,7 +4593,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -4531,7 +4636,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4573,7 +4678,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -4588,15 +4693,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4622,13 +4727,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4678,7 +4783,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4690,21 +4795,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4729,16 +4834,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4807,7 +4912,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4910,7 +5015,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -5015,7 +5120,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -5058,7 +5163,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -5100,7 +5205,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -5115,15 +5220,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5149,13 +5254,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5205,7 +5310,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5217,21 +5322,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5256,16 +5361,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5334,7 +5439,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -5437,7 +5542,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5542,7 +5647,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5585,7 +5690,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5627,7 +5732,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -5642,15 +5747,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5673,16 +5778,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5708,13 +5813,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5837,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5744,21 +5849,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5783,16 +5888,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5861,7 +5966,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5964,7 +6069,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -6069,7 +6174,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -6112,7 +6217,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6154,7 +6259,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -6169,15 +6274,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6200,16 +6305,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="N39" t="s" s="2">
         <v>190</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6259,7 +6364,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6271,21 +6376,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6310,16 +6415,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6388,7 +6493,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6491,7 +6596,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6596,7 +6701,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6639,7 +6744,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6681,7 +6786,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
@@ -6696,15 +6801,15 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6727,16 +6832,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="N44" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6786,7 +6891,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6798,21 +6903,21 @@
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6837,16 +6942,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6915,7 +7020,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -7018,7 +7123,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -7123,7 +7228,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -7166,7 +7271,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7208,7 +7313,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
@@ -7223,15 +7328,15 @@
         <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7257,13 +7362,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7313,7 +7418,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7325,21 +7430,21 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7364,16 +7469,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7442,7 +7547,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7545,7 +7650,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7650,7 +7755,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7693,7 +7798,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7735,7 +7840,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
@@ -7750,15 +7855,15 @@
         <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7781,16 +7886,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7840,7 +7945,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7852,21 +7957,21 @@
         <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7891,16 +7996,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -7969,7 +8074,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -8072,7 +8177,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -8177,7 +8282,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -8220,7 +8325,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8262,7 +8367,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>86</v>
@@ -8277,15 +8382,15 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8308,16 +8413,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8367,7 +8472,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8379,21 +8484,21 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8418,16 +8523,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8496,7 +8601,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8599,7 +8704,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8704,7 +8809,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8747,7 +8852,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>235</v>
+        <v>254</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8789,7 +8894,7 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>86</v>
@@ -8804,15 +8909,15 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8835,16 +8940,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8894,7 +8999,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -8906,21 +9011,21 @@
         <v>77</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -8945,16 +9050,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9023,7 +9128,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -9126,7 +9231,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -9231,7 +9336,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -9274,7 +9379,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9316,7 +9421,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>86</v>
@@ -9331,15 +9436,15 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9362,16 +9467,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9397,13 +9502,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9421,7 +9526,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9433,21 +9538,21 @@
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>259</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9472,16 +9577,16 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9550,7 +9655,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -9653,7 +9758,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9758,7 +9863,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9801,7 +9906,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9843,7 +9948,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>86</v>
@@ -9858,15 +9963,15 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -9889,16 +9994,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -9948,7 +10053,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -9960,21 +10065,21 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -9999,14 +10104,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10075,7 +10180,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -10178,7 +10283,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -10283,7 +10388,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -10326,7 +10431,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>270</v>
+        <v>291</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10368,7 +10473,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>86</v>
@@ -10383,15 +10488,15 @@
         <v>77</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10414,13 +10519,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10471,7 +10576,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10483,21 +10588,21 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>278</v>
+        <v>293</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>279</v>
+        <v>294</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10522,16 +10627,16 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10600,7 +10705,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>284</v>
+        <v>299</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10703,7 +10808,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>285</v>
+        <v>300</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10808,7 +10913,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>286</v>
+        <v>301</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -10851,7 +10956,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>279</v>
+        <v>302</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10893,7 +10998,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>86</v>
@@ -10908,15 +11013,15 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10942,13 +11047,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>280</v>
+        <v>295</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -10998,7 +11103,7 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
@@ -11010,21 +11115,21 @@
         <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>288</v>
+        <v>304</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11049,14 +11154,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11125,7 +11230,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -11228,7 +11333,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -11333,7 +11438,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -11376,7 +11481,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11418,7 +11523,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>86</v>
@@ -11433,15 +11538,15 @@
         <v>77</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11464,13 +11569,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11521,7 +11626,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11533,21 +11638,21 @@
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11572,14 +11677,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11648,7 +11753,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>106</v>
@@ -11751,7 +11856,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>108</v>
@@ -11856,7 +11961,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11899,7 +12004,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11941,7 +12046,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -11956,15 +12061,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>305</v>
+        <v>323</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11987,13 +12092,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12044,7 +12149,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12056,21 +12161,21 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>307</v>
+        <v>325</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12095,14 +12200,14 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>311</v>
+        <v>329</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12171,7 +12276,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -12274,7 +12379,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -12379,7 +12484,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>314</v>
+        <v>332</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12422,7 +12527,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12464,7 +12569,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -12479,15 +12584,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12510,13 +12615,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>309</v>
+        <v>327</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12567,7 +12672,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12579,21 +12684,21 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12618,14 +12723,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>318</v>
+        <v>337</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>319</v>
+        <v>338</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12694,7 +12799,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12797,7 +12902,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>322</v>
+        <v>341</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12900,13 +13005,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>323</v>
+        <v>342</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -12931,14 +13036,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13007,10 +13112,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13110,10 +13215,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13215,10 +13320,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>331</v>
+        <v>350</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13258,7 +13363,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13300,7 +13405,7 @@
         <v>77</v>
       </c>
       <c r="AF106" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>86</v>
@@ -13315,15 +13420,15 @@
         <v>77</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13346,13 +13451,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>324</v>
+        <v>343</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>325</v>
+        <v>344</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13403,7 +13508,7 @@
         <v>77</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>78</v>
@@ -13415,21 +13520,21 @@
         <v>77</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK107" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13454,14 +13559,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13530,10 +13635,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13633,10 +13738,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13738,10 +13843,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13781,7 +13886,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13823,7 +13928,7 @@
         <v>77</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>86</v>
@@ -13838,15 +13943,15 @@
         <v>77</v>
       </c>
       <c r="AK111" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>343</v>
+        <v>364</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13869,13 +13974,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -13926,7 +14031,7 @@
         <v>77</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>78</v>
@@ -13938,15 +14043,15 @@
         <v>77</v>
       </c>
       <c r="AJ112" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>344</v>
+        <v>365</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -13989,7 +14094,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -14031,7 +14136,7 @@
         <v>77</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>86</v>
@@ -14046,15 +14151,15 @@
         <v>77</v>
       </c>
       <c r="AK113" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>346</v>
+        <v>367</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -14077,13 +14182,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14134,7 +14239,7 @@
         <v>77</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>78</v>
@@ -14146,21 +14251,21 @@
         <v>77</v>
       </c>
       <c r="AJ114" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -14185,14 +14290,14 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -14261,7 +14366,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -14364,7 +14469,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -14469,7 +14574,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -14512,7 +14617,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14554,7 +14659,7 @@
         <v>77</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>86</v>
@@ -14569,15 +14674,15 @@
         <v>77</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>358</v>
+        <v>380</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14600,13 +14705,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14657,7 +14762,7 @@
         <v>77</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>78</v>
@@ -14669,21 +14774,21 @@
         <v>77</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>359</v>
+        <v>381</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>360</v>
+        <v>382</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14708,14 +14813,14 @@
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>361</v>
+        <v>383</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>362</v>
+        <v>384</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>363</v>
+        <v>385</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14784,7 +14889,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>364</v>
+        <v>386</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -14887,7 +14992,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -14990,13 +15095,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>366</v>
+        <v>388</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>367</v>
+        <v>389</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15021,14 +15126,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15097,10 +15202,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15200,10 +15305,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15305,10 +15410,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15348,7 +15453,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15390,7 +15495,7 @@
         <v>77</v>
       </c>
       <c r="AF126" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>86</v>
@@ -15405,15 +15510,15 @@
         <v>77</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15436,13 +15541,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>368</v>
+        <v>390</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>369</v>
+        <v>391</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15493,7 +15598,7 @@
         <v>77</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>78</v>
@@ -15505,21 +15610,21 @@
         <v>77</v>
       </c>
       <c r="AJ127" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15544,14 +15649,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15620,10 +15725,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15723,10 +15828,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15828,10 +15933,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15871,7 +15976,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>298</v>
+        <v>406</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -15913,7 +16018,7 @@
         <v>77</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>86</v>
@@ -15928,15 +16033,15 @@
         <v>77</v>
       </c>
       <c r="AK131" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -15959,13 +16064,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16016,7 +16121,7 @@
         <v>77</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>78</v>
@@ -16028,21 +16133,21 @@
         <v>77</v>
       </c>
       <c r="AJ132" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK132" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>317</v>
+        <v>336</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -16067,14 +16172,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>386</v>
+        <v>410</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -16143,10 +16248,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>388</v>
+        <v>412</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16246,10 +16351,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16349,13 +16454,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>390</v>
+        <v>414</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16380,14 +16485,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16456,10 +16561,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16559,10 +16664,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>396</v>
+        <v>420</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16664,10 +16769,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>398</v>
+        <v>422</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16707,7 +16812,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>224</v>
+        <v>424</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16749,7 +16854,7 @@
         <v>77</v>
       </c>
       <c r="AF139" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>86</v>
@@ -16764,15 +16869,15 @@
         <v>77</v>
       </c>
       <c r="AK139" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16795,13 +16900,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>392</v>
+        <v>416</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16852,7 +16957,7 @@
         <v>77</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>78</v>
@@ -16864,21 +16969,21 @@
         <v>77</v>
       </c>
       <c r="AJ140" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK140" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16903,14 +17008,14 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -16979,10 +17084,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17082,10 +17187,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17187,10 +17292,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17230,7 +17335,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>336</v>
+        <v>433</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17272,7 +17377,7 @@
         <v>77</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>86</v>
@@ -17287,15 +17392,15 @@
         <v>77</v>
       </c>
       <c r="AK144" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>408</v>
+        <v>434</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17318,13 +17423,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17375,7 +17480,7 @@
         <v>77</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>78</v>
@@ -17387,18 +17492,18 @@
         <v>77</v>
       </c>
       <c r="AJ145" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK145" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17438,7 +17543,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>410</v>
+        <v>436</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17480,7 +17585,7 @@
         <v>77</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>86</v>
@@ -17495,15 +17600,15 @@
         <v>77</v>
       </c>
       <c r="AK146" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17526,13 +17631,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17583,7 +17688,7 @@
         <v>77</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>78</v>
@@ -17595,21 +17700,21 @@
         <v>77</v>
       </c>
       <c r="AJ147" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK147" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>412</v>
+        <v>438</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17634,14 +17739,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>414</v>
+        <v>440</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17710,10 +17815,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17813,10 +17918,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -17916,13 +18021,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>419</v>
+        <v>445</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -17947,14 +18052,14 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -18023,10 +18128,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18126,10 +18231,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18231,10 +18336,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18274,7 +18379,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18316,7 +18421,7 @@
         <v>77</v>
       </c>
       <c r="AF154" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>86</v>
@@ -18331,15 +18436,15 @@
         <v>77</v>
       </c>
       <c r="AK154" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18362,13 +18467,13 @@
         <v>77</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>421</v>
+        <v>447</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18419,7 +18524,7 @@
         <v>77</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -18431,21 +18536,21 @@
         <v>77</v>
       </c>
       <c r="AJ155" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>428</v>
+        <v>455</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>429</v>
+        <v>456</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18470,14 +18575,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>430</v>
+        <v>457</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>431</v>
+        <v>458</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>432</v>
+        <v>459</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18546,10 +18651,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>433</v>
+        <v>460</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18649,10 +18754,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>434</v>
+        <v>461</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18752,13 +18857,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>435</v>
+        <v>462</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>436</v>
+        <v>463</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -18783,14 +18888,14 @@
         <v>93</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>77</v>
@@ -18859,10 +18964,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>440</v>
+        <v>467</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -18962,10 +19067,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>442</v>
+        <v>469</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19067,10 +19172,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>444</v>
+        <v>471</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19110,7 +19215,7 @@
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>77</v>
@@ -19152,7 +19257,7 @@
         <v>77</v>
       </c>
       <c r="AF162" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG162" t="s" s="2">
         <v>86</v>
@@ -19167,15 +19272,15 @@
         <v>77</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>446</v>
+        <v>474</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19198,13 +19303,13 @@
         <v>77</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>437</v>
+        <v>464</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -19255,7 +19360,7 @@
         <v>77</v>
       </c>
       <c r="AF163" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG163" t="s" s="2">
         <v>78</v>
@@ -19267,21 +19372,21 @@
         <v>77</v>
       </c>
       <c r="AJ163" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK163" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>448</v>
+        <v>476</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>77</v>
@@ -19306,14 +19411,14 @@
         <v>93</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>452</v>
+        <v>480</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>77</v>
@@ -19382,10 +19487,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19485,10 +19590,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19590,10 +19695,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>455</v>
+        <v>483</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19633,7 +19738,7 @@
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>449</v>
+        <v>484</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>77</v>
@@ -19675,7 +19780,7 @@
         <v>77</v>
       </c>
       <c r="AF167" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG167" t="s" s="2">
         <v>86</v>
@@ -19690,15 +19795,15 @@
         <v>77</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19721,13 +19826,13 @@
         <v>77</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>451</v>
+        <v>479</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -19778,7 +19883,7 @@
         <v>77</v>
       </c>
       <c r="AF168" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG168" t="s" s="2">
         <v>78</v>
@@ -19790,18 +19895,18 @@
         <v>77</v>
       </c>
       <c r="AJ168" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>458</v>
+        <v>487</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19841,7 +19946,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>459</v>
+        <v>488</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -19883,7 +19988,7 @@
         <v>77</v>
       </c>
       <c r="AF169" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG169" t="s" s="2">
         <v>86</v>
@@ -19898,15 +20003,15 @@
         <v>77</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -19929,13 +20034,13 @@
         <v>77</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -19986,7 +20091,7 @@
         <v>77</v>
       </c>
       <c r="AF170" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG170" t="s" s="2">
         <v>78</v>
@@ -19998,18 +20103,18 @@
         <v>77</v>
       </c>
       <c r="AJ170" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>461</v>
+        <v>490</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20049,7 +20154,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20091,7 +20196,7 @@
         <v>77</v>
       </c>
       <c r="AF171" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG171" t="s" s="2">
         <v>86</v>
@@ -20106,15 +20211,15 @@
         <v>77</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>463</v>
+        <v>492</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20137,13 +20242,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20194,7 +20299,7 @@
         <v>77</v>
       </c>
       <c r="AF172" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG172" t="s" s="2">
         <v>78</v>
@@ -20206,21 +20311,21 @@
         <v>77</v>
       </c>
       <c r="AJ172" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>464</v>
+        <v>493</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>465</v>
+        <v>494</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20245,14 +20350,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20321,10 +20426,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>469</v>
+        <v>498</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20424,10 +20529,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20527,13 +20632,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20558,14 +20663,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20634,10 +20739,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20737,10 +20842,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20842,10 +20947,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20885,7 +20990,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -20927,7 +21032,7 @@
         <v>77</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>86</v>
@@ -20942,15 +21047,15 @@
         <v>77</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>479</v>
+        <v>509</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -20973,13 +21078,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>474</v>
+        <v>503</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -21030,7 +21135,7 @@
         <v>77</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -21042,21 +21147,21 @@
         <v>77</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK180" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>481</v>
+        <v>511</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>482</v>
+        <v>512</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21081,14 +21186,14 @@
         <v>93</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>485</v>
+        <v>515</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21157,10 +21262,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>486</v>
+        <v>516</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21260,10 +21365,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>487</v>
+        <v>517</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21365,10 +21470,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>488</v>
+        <v>518</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21408,7 +21513,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21450,7 +21555,7 @@
         <v>77</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>86</v>
@@ -21465,15 +21570,15 @@
         <v>77</v>
       </c>
       <c r="AK184" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21496,13 +21601,13 @@
         <v>77</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>483</v>
+        <v>513</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>484</v>
+        <v>514</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21553,7 +21658,7 @@
         <v>77</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>78</v>
@@ -21565,21 +21670,21 @@
         <v>77</v>
       </c>
       <c r="AJ185" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK185" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>449</v>
+        <v>477</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>77</v>
@@ -21604,14 +21709,14 @@
         <v>93</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>77</v>
@@ -21680,10 +21785,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21783,10 +21888,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21888,10 +21993,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -21931,7 +22036,7 @@
       </c>
       <c r="Q189" s="2"/>
       <c r="R189" t="s" s="2">
-        <v>449</v>
+        <v>528</v>
       </c>
       <c r="S189" t="s" s="2">
         <v>77</v>
@@ -21973,7 +22078,7 @@
         <v>77</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>86</v>
@@ -21988,15 +22093,15 @@
         <v>77</v>
       </c>
       <c r="AK189" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>497</v>
+        <v>529</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22019,13 +22124,13 @@
         <v>77</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>457</v>
+        <v>486</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -22076,7 +22181,7 @@
         <v>77</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>78</v>
@@ -22088,18 +22193,18 @@
         <v>77</v>
       </c>
       <c r="AJ190" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>498</v>
+        <v>530</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22139,7 +22244,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22181,7 +22286,7 @@
         <v>77</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>86</v>
@@ -22196,15 +22301,15 @@
         <v>77</v>
       </c>
       <c r="AK191" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>500</v>
+        <v>532</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22227,13 +22332,13 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22284,7 +22389,7 @@
         <v>77</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>78</v>
@@ -22296,21 +22401,21 @@
         <v>77</v>
       </c>
       <c r="AJ192" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK192" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>501</v>
+        <v>533</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22335,14 +22440,14 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>503</v>
+        <v>535</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22411,10 +22516,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22514,10 +22619,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22617,13 +22722,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22648,14 +22753,14 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -22724,10 +22829,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22827,10 +22932,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -22932,10 +23037,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -22975,7 +23080,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>472</v>
+        <v>547</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -23017,7 +23122,7 @@
         <v>77</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>86</v>
@@ -23032,15 +23137,15 @@
         <v>77</v>
       </c>
       <c r="AK199" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23063,13 +23168,13 @@
         <v>77</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -23120,7 +23225,7 @@
         <v>77</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -23132,21 +23237,21 @@
         <v>77</v>
       </c>
       <c r="AJ200" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK200" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>77</v>
@@ -23171,14 +23276,14 @@
         <v>93</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -23247,10 +23352,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23350,10 +23455,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23453,13 +23558,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>77</v>
@@ -23484,10 +23589,10 @@
         <v>93</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23558,10 +23663,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23661,10 +23766,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23766,10 +23871,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23809,7 +23914,7 @@
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>77</v>
@@ -23851,7 +23956,7 @@
         <v>77</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>86</v>
@@ -23866,15 +23971,15 @@
         <v>77</v>
       </c>
       <c r="AK207" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23900,13 +24005,13 @@
         <v>87</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -23914,7 +24019,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>77</v>
@@ -23956,7 +24061,7 @@
         <v>77</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -23968,21 +24073,21 @@
         <v>77</v>
       </c>
       <c r="AJ208" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK208" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -24007,14 +24112,14 @@
         <v>93</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -24083,10 +24188,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24186,10 +24291,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>540</v>
+        <v>573</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24291,10 +24396,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>541</v>
+        <v>574</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24334,7 +24439,7 @@
       </c>
       <c r="Q212" s="2"/>
       <c r="R212" t="s" s="2">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="S212" t="s" s="2">
         <v>77</v>
@@ -24376,7 +24481,7 @@
         <v>77</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>86</v>
@@ -24391,15 +24496,15 @@
         <v>77</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>542</v>
+        <v>575</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24422,13 +24527,13 @@
         <v>77</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -24479,7 +24584,7 @@
         <v>77</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>78</v>
@@ -24491,21 +24596,21 @@
         <v>77</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK213" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>543</v>
+        <v>576</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="D214" t="s" s="2">
         <v>77</v>
@@ -24530,14 +24635,14 @@
         <v>93</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>77</v>
@@ -24606,10 +24711,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>548</v>
+        <v>581</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24709,10 +24814,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24814,10 +24919,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>550</v>
+        <v>583</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24857,7 +24962,7 @@
       </c>
       <c r="Q217" s="2"/>
       <c r="R217" t="s" s="2">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>77</v>
@@ -24899,7 +25004,7 @@
         <v>77</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>86</v>
@@ -24914,15 +25019,15 @@
         <v>77</v>
       </c>
       <c r="AK217" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>551</v>
+        <v>584</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -24945,13 +25050,13 @@
         <v>77</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -25002,7 +25107,7 @@
         <v>77</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>78</v>
@@ -25014,18 +25119,18 @@
         <v>77</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK218" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>552</v>
+        <v>585</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25065,7 +25170,7 @@
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>517</v>
+        <v>586</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>77</v>
@@ -25107,7 +25212,7 @@
         <v>77</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>86</v>
@@ -25122,15 +25227,15 @@
         <v>77</v>
       </c>
       <c r="AK219" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25153,13 +25258,13 @@
         <v>77</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -25210,7 +25315,7 @@
         <v>77</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>78</v>
@@ -25222,21 +25327,21 @@
         <v>77</v>
       </c>
       <c r="AJ220" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK220" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>330</v>
+        <v>349</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>77</v>
@@ -25261,14 +25366,14 @@
         <v>93</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -25337,10 +25442,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25440,10 +25545,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -25543,13 +25648,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>77</v>
@@ -25574,10 +25679,10 @@
         <v>93</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25648,10 +25753,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25751,10 +25856,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -25856,10 +25961,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -25899,7 +26004,7 @@
       </c>
       <c r="Q227" s="2"/>
       <c r="R227" t="s" s="2">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="S227" t="s" s="2">
         <v>77</v>
@@ -25941,7 +26046,7 @@
         <v>77</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>86</v>
@@ -25956,15 +26061,15 @@
         <v>77</v>
       </c>
       <c r="AK227" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -25990,13 +26095,13 @@
         <v>87</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -26004,7 +26109,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26046,7 +26151,7 @@
         <v>77</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>78</v>
@@ -26058,21 +26163,21 @@
         <v>77</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK228" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>77</v>
@@ -26097,14 +26202,14 @@
         <v>93</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
-        <v>538</v>
+        <v>571</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>77</v>
@@ -26173,10 +26278,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26276,10 +26381,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26381,10 +26486,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26424,7 +26529,7 @@
       </c>
       <c r="Q232" s="2"/>
       <c r="R232" t="s" s="2">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="S232" t="s" s="2">
         <v>77</v>
@@ -26466,7 +26571,7 @@
         <v>77</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>86</v>
@@ -26481,15 +26586,15 @@
         <v>77</v>
       </c>
       <c r="AK232" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -26512,13 +26617,13 @@
         <v>77</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -26569,7 +26674,7 @@
         <v>77</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>78</v>
@@ -26581,21 +26686,21 @@
         <v>77</v>
       </c>
       <c r="AJ233" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK233" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>77</v>
@@ -26620,14 +26725,14 @@
         <v>93</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>77</v>
@@ -26696,10 +26801,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>441</v>
+        <v>468</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -26799,10 +26904,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>443</v>
+        <v>470</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -26904,10 +27009,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>445</v>
+        <v>472</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -26947,7 +27052,7 @@
       </c>
       <c r="Q237" s="2"/>
       <c r="R237" t="s" s="2">
-        <v>544</v>
+        <v>577</v>
       </c>
       <c r="S237" t="s" s="2">
         <v>77</v>
@@ -26989,7 +27094,7 @@
         <v>77</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>86</v>
@@ -27004,15 +27109,15 @@
         <v>77</v>
       </c>
       <c r="AK237" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>447</v>
+        <v>475</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27035,13 +27140,13 @@
         <v>77</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>545</v>
+        <v>578</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -27092,7 +27197,7 @@
         <v>77</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>78</v>
@@ -27104,18 +27209,18 @@
         <v>77</v>
       </c>
       <c r="AJ238" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK238" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27155,7 +27260,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>555</v>
+        <v>611</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27197,7 +27302,7 @@
         <v>77</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>86</v>
@@ -27212,15 +27317,15 @@
         <v>77</v>
       </c>
       <c r="AK239" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>577</v>
+        <v>612</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27243,13 +27348,13 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27300,7 +27405,7 @@
         <v>77</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>78</v>
@@ -27312,18 +27417,18 @@
         <v>77</v>
       </c>
       <c r="AJ240" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK240" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>578</v>
+        <v>613</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>332</v>
+        <v>351</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27363,7 +27468,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27405,7 +27510,7 @@
         <v>77</v>
       </c>
       <c r="AF241" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG241" t="s" s="2">
         <v>86</v>
@@ -27420,15 +27525,15 @@
         <v>77</v>
       </c>
       <c r="AK241" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27451,13 +27556,13 @@
         <v>77</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -27508,7 +27613,7 @@
         <v>77</v>
       </c>
       <c r="AF242" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG242" t="s" s="2">
         <v>78</v>
@@ -27520,15 +27625,15 @@
         <v>77</v>
       </c>
       <c r="AJ242" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK242" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>114</v>
@@ -27571,7 +27676,7 @@
       </c>
       <c r="Q243" s="2"/>
       <c r="R243" t="s" s="2">
-        <v>582</v>
+        <v>617</v>
       </c>
       <c r="S243" t="s" s="2">
         <v>77</v>
@@ -27613,7 +27718,7 @@
         <v>77</v>
       </c>
       <c r="AF243" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG243" t="s" s="2">
         <v>86</v>
@@ -27628,15 +27733,15 @@
         <v>77</v>
       </c>
       <c r="AK243" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>583</v>
+        <v>618</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -27659,13 +27764,13 @@
         <v>77</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -27716,7 +27821,7 @@
         <v>77</v>
       </c>
       <c r="AF244" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG244" t="s" s="2">
         <v>78</v>
@@ -27728,18 +27833,18 @@
         <v>77</v>
       </c>
       <c r="AJ244" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK244" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -27821,7 +27926,7 @@
         <v>77</v>
       </c>
       <c r="AF245" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG245" t="s" s="2">
         <v>86</v>
@@ -27836,15 +27941,15 @@
         <v>77</v>
       </c>
       <c r="AK245" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -27867,13 +27972,13 @@
         <v>77</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>347</v>
+        <v>368</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
@@ -27924,7 +28029,7 @@
         <v>77</v>
       </c>
       <c r="AF246" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG246" t="s" s="2">
         <v>78</v>
@@ -27936,10 +28041,10 @@
         <v>77</v>
       </c>
       <c r="AJ246" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK246" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-TestPlan.xlsx
+++ b/StructureDefinition-ext-R5-TestPlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="613">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -586,15 +586,6 @@
 </t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -853,15 +844,6 @@
 </t>
   </si>
   <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>Countries and regions within which this artifact is targeted for use.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-jurisdiction-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:purpose</t>
   </si>
   <si>
@@ -1764,8 +1746,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.extension:concept.id</t>
@@ -1792,8 +1773,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.extension:reference.id</t>
@@ -2257,8 +2237,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.2890625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -5813,13 +5793,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>183</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>185</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5857,13 +5837,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5888,16 +5868,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="O35" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>191</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5966,7 +5946,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -6069,7 +6049,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -6174,7 +6154,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -6217,7 +6197,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6279,7 +6259,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -6305,16 +6285,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6384,13 +6364,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6415,16 +6395,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="O40" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6493,7 +6473,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6596,7 +6576,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6701,7 +6681,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6744,7 +6724,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6806,7 +6786,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6832,16 +6812,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6911,13 +6891,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6942,16 +6922,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O45" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7020,7 +7000,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -7123,7 +7103,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -7228,7 +7208,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -7271,7 +7251,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7333,7 +7313,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -7362,13 +7342,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7438,13 +7418,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7469,16 +7449,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="O50" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7547,7 +7527,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7650,7 +7630,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7755,7 +7735,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7798,7 +7778,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7860,7 +7840,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7886,16 +7866,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7965,13 +7945,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7996,16 +7976,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O55" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8074,7 +8054,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -8177,7 +8157,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -8282,7 +8262,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -8325,7 +8305,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8387,7 +8367,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -8413,16 +8393,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8492,13 +8472,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8523,16 +8503,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O60" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8601,7 +8581,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8704,7 +8684,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8809,7 +8789,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8852,7 +8832,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8914,7 +8894,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8940,16 +8920,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9019,13 +8999,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9050,16 +9030,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9128,7 +9108,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -9231,7 +9211,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -9336,7 +9316,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -9379,7 +9359,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9441,7 +9421,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -9467,16 +9447,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9502,13 +9482,13 @@
         <v>77</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>269</v>
+        <v>77</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>270</v>
+        <v>77</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>77</v>
@@ -9546,13 +9526,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9577,16 +9557,16 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9655,7 +9635,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -9758,7 +9738,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9863,7 +9843,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9906,7 +9886,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9968,7 +9948,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9994,16 +9974,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10073,13 +10053,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10104,14 +10084,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10180,7 +10160,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -10283,7 +10263,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -10388,7 +10368,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -10431,7 +10411,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10493,7 +10473,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10519,13 +10499,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10596,13 +10576,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10627,16 +10607,16 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10705,7 +10685,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10808,7 +10788,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10913,7 +10893,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -10956,7 +10936,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -11018,7 +10998,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -11047,13 +11027,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11123,13 +11103,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11154,14 +11134,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11230,7 +11210,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -11333,7 +11313,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -11438,7 +11418,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -11481,7 +11461,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11543,7 +11523,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11569,13 +11549,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11646,13 +11626,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11677,14 +11657,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11753,7 +11733,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>106</v>
@@ -11856,7 +11836,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>108</v>
@@ -11961,7 +11941,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -12004,7 +11984,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -12066,7 +12046,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -12092,13 +12072,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12169,13 +12149,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12200,14 +12180,14 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12276,7 +12256,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -12379,7 +12359,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -12484,7 +12464,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12527,7 +12507,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12589,7 +12569,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12615,13 +12595,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12692,13 +12672,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12723,14 +12703,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12799,7 +12779,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12902,7 +12882,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -13005,13 +12985,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -13036,14 +13016,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13112,10 +13092,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13215,10 +13195,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13320,10 +13300,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13363,7 +13343,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13425,10 +13405,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13451,13 +13431,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13528,13 +13508,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13559,14 +13539,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13635,10 +13615,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13738,10 +13718,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13843,10 +13823,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13886,7 +13866,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13948,10 +13928,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13974,13 +13954,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14051,7 +14031,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -14094,7 +14074,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -14156,7 +14136,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -14182,13 +14162,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14259,13 +14239,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -14290,14 +14270,14 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -14366,7 +14346,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -14469,7 +14449,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -14574,7 +14554,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -14617,7 +14597,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14679,7 +14659,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>123</v>
@@ -14705,13 +14685,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14782,13 +14762,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14813,14 +14793,14 @@
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14889,7 +14869,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -14992,7 +14972,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -15095,13 +15075,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15126,14 +15106,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15202,10 +15182,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15305,10 +15285,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15410,10 +15390,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15453,7 +15433,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15515,10 +15495,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15541,13 +15521,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15618,13 +15598,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15649,14 +15629,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15725,10 +15705,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15828,10 +15808,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15933,10 +15913,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15976,7 +15956,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -16038,10 +16018,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16064,13 +16044,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16141,13 +16121,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -16172,14 +16152,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -16248,10 +16228,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16351,10 +16331,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16454,13 +16434,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16485,14 +16465,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16561,10 +16541,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16664,10 +16644,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16769,10 +16749,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16812,7 +16792,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16874,10 +16854,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16900,13 +16880,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16977,13 +16957,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -17008,14 +16988,14 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -17084,10 +17064,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17187,10 +17167,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17292,10 +17272,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17335,7 +17315,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17397,10 +17377,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17423,13 +17403,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17500,10 +17480,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17543,7 +17523,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17605,10 +17585,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17631,13 +17611,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17708,13 +17688,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17739,14 +17719,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17815,10 +17795,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17918,10 +17898,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18021,13 +18001,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -18052,14 +18032,14 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -18128,10 +18108,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18231,10 +18211,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18336,10 +18316,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18379,7 +18359,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18441,10 +18421,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18467,13 +18447,13 @@
         <v>77</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18544,13 +18524,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18575,14 +18555,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18651,10 +18631,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18754,10 +18734,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18857,13 +18837,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -18888,14 +18868,14 @@
         <v>93</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>77</v>
@@ -18964,10 +18944,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19067,10 +19047,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19172,10 +19152,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19215,7 +19195,7 @@
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>77</v>
@@ -19277,10 +19257,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19303,13 +19283,13 @@
         <v>77</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -19380,13 +19360,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>77</v>
@@ -19411,14 +19391,14 @@
         <v>93</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>77</v>
@@ -19487,10 +19467,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19590,10 +19570,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19695,10 +19675,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19738,7 +19718,7 @@
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>77</v>
@@ -19800,10 +19780,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19826,13 +19806,13 @@
         <v>77</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -19903,10 +19883,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19946,7 +19926,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -20008,10 +19988,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20034,13 +20014,13 @@
         <v>77</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -20111,10 +20091,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20154,7 +20134,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20216,10 +20196,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20242,13 +20222,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20319,13 +20299,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20350,14 +20330,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20426,10 +20406,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20529,10 +20509,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20632,13 +20612,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20663,14 +20643,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20739,10 +20719,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20842,10 +20822,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20947,10 +20927,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20990,7 +20970,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -21052,10 +21032,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21078,13 +21058,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -21155,13 +21135,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21186,14 +21166,14 @@
         <v>93</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21262,10 +21242,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21365,10 +21345,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21470,10 +21450,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21513,7 +21493,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21575,10 +21555,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21601,13 +21581,13 @@
         <v>77</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21678,13 +21658,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>77</v>
@@ -21709,14 +21689,14 @@
         <v>93</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>77</v>
@@ -21785,10 +21765,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21888,10 +21868,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21993,10 +21973,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22036,7 +22016,7 @@
       </c>
       <c r="Q189" s="2"/>
       <c r="R189" t="s" s="2">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="S189" t="s" s="2">
         <v>77</v>
@@ -22098,10 +22078,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22124,13 +22104,13 @@
         <v>77</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -22201,10 +22181,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22244,7 +22224,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22306,10 +22286,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22332,13 +22312,13 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22409,13 +22389,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22440,14 +22420,14 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22516,10 +22496,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22619,10 +22599,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22722,13 +22702,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22753,14 +22733,14 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -22829,10 +22809,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22932,10 +22912,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23037,10 +23017,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23080,7 +23060,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -23142,10 +23122,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23168,13 +23148,13 @@
         <v>77</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -23245,13 +23225,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>77</v>
@@ -23276,14 +23256,14 @@
         <v>93</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -23352,10 +23332,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23455,10 +23435,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23558,13 +23538,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>77</v>
@@ -23589,10 +23569,10 @@
         <v>93</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23663,10 +23643,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23766,10 +23746,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23871,10 +23851,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23914,7 +23894,7 @@
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>77</v>
@@ -23976,10 +23956,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -24005,13 +23985,13 @@
         <v>87</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -24019,7 +23999,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>77</v>
@@ -24081,13 +24061,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -24112,14 +24092,14 @@
         <v>93</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -24188,10 +24168,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24291,10 +24271,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24396,10 +24376,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24439,7 +24419,7 @@
       </c>
       <c r="Q212" s="2"/>
       <c r="R212" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="S212" t="s" s="2">
         <v>77</v>
@@ -24501,10 +24481,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24527,13 +24507,13 @@
         <v>77</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -24604,13 +24584,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D214" t="s" s="2">
         <v>77</v>
@@ -24635,14 +24615,14 @@
         <v>93</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>77</v>
@@ -24711,10 +24691,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24814,10 +24794,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24919,10 +24899,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24962,7 +24942,7 @@
       </c>
       <c r="Q217" s="2"/>
       <c r="R217" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>77</v>
@@ -25024,10 +25004,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -25050,13 +25030,13 @@
         <v>77</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -25127,10 +25107,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25170,7 +25150,7 @@
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>77</v>
@@ -25232,10 +25212,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25258,13 +25238,13 @@
         <v>77</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -25335,13 +25315,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>77</v>
@@ -25366,14 +25346,14 @@
         <v>93</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -25442,10 +25422,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25545,10 +25525,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -25648,13 +25628,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>77</v>
@@ -25679,10 +25659,10 @@
         <v>93</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25753,10 +25733,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25856,10 +25836,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -25961,10 +25941,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26004,7 +25984,7 @@
       </c>
       <c r="Q227" s="2"/>
       <c r="R227" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="S227" t="s" s="2">
         <v>77</v>
@@ -26066,10 +26046,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26095,13 +26075,13 @@
         <v>87</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -26109,7 +26089,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26171,13 +26151,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>77</v>
@@ -26202,14 +26182,14 @@
         <v>93</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>77</v>
@@ -26278,10 +26258,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26381,10 +26361,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26486,10 +26466,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26529,7 +26509,7 @@
       </c>
       <c r="Q232" s="2"/>
       <c r="R232" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="S232" t="s" s="2">
         <v>77</v>
@@ -26591,10 +26571,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -26617,13 +26597,13 @@
         <v>77</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -26694,13 +26674,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>77</v>
@@ -26725,14 +26705,14 @@
         <v>93</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>77</v>
@@ -26801,10 +26781,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -26904,10 +26884,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -27009,10 +26989,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27052,7 +27032,7 @@
       </c>
       <c r="Q237" s="2"/>
       <c r="R237" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="S237" t="s" s="2">
         <v>77</v>
@@ -27114,10 +27094,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27140,13 +27120,13 @@
         <v>77</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -27217,10 +27197,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27260,7 +27240,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27322,10 +27302,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27348,13 +27328,13 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27425,10 +27405,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27468,7 +27448,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27530,10 +27510,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27556,13 +27536,13 @@
         <v>77</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -27633,7 +27613,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>114</v>
@@ -27676,7 +27656,7 @@
       </c>
       <c r="Q243" s="2"/>
       <c r="R243" t="s" s="2">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="S243" t="s" s="2">
         <v>77</v>
@@ -27738,7 +27718,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>123</v>
@@ -27764,13 +27744,13 @@
         <v>77</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -27972,13 +27952,13 @@
         <v>77</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>

--- a/StructureDefinition-ext-R5-TestPlan.xlsx
+++ b/StructureDefinition-ext-R5-TestPlan.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8132" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8131" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -482,6 +482,12 @@
 Coding</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-version-algorithm-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:name</t>
   </si>
   <si>
@@ -586,6 +592,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:experimental</t>
   </si>
   <si>
@@ -970,6 +985,15 @@
     <t>Extension.extension:category.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>The high-level category for this plan.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-testscript-scope-phase-codes-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:scope</t>
   </si>
   <si>
@@ -1746,7 +1770,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.extension:concept.id</t>
@@ -1773,7 +1797,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:testCase.extension:assertion.extension:object.extension:reference.id</t>
@@ -2237,8 +2261,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="30.15234375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.16796875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4212,13 +4236,11 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4256,13 +4278,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4287,16 +4309,16 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4365,7 +4387,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -4468,7 +4490,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -4573,7 +4595,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -4616,7 +4638,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -4678,7 +4700,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -4707,13 +4729,13 @@
         <v>87</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -4783,13 +4805,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -4814,16 +4836,16 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4892,7 +4914,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4995,7 +5017,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -5100,7 +5122,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -5143,7 +5165,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -5205,7 +5227,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -5234,13 +5256,13 @@
         <v>87</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5310,13 +5332,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -5341,16 +5363,16 @@
         <v>93</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5419,7 +5441,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -5522,7 +5544,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -5627,7 +5649,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -5670,7 +5692,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -5732,7 +5754,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -5758,16 +5780,16 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5793,13 +5815,13 @@
         <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>77</v>
@@ -5837,13 +5859,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -5868,16 +5890,16 @@
         <v>93</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5946,7 +5968,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -6049,7 +6071,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -6154,7 +6176,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -6197,7 +6219,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -6259,7 +6281,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -6285,16 +6307,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6364,13 +6386,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -6395,16 +6417,16 @@
         <v>93</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6473,7 +6495,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -6576,7 +6598,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -6681,7 +6703,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>114</v>
@@ -6724,7 +6746,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>77</v>
@@ -6786,7 +6808,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>123</v>
@@ -6812,16 +6834,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6891,13 +6913,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>77</v>
@@ -6922,16 +6944,16 @@
         <v>93</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -7000,7 +7022,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>106</v>
@@ -7103,7 +7125,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>108</v>
@@ -7208,7 +7230,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>114</v>
@@ -7251,7 +7273,7 @@
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="S48" t="s" s="2">
         <v>77</v>
@@ -7313,7 +7335,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>123</v>
@@ -7342,13 +7364,13 @@
         <v>87</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7418,13 +7440,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>77</v>
@@ -7449,16 +7471,16 @@
         <v>93</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7527,7 +7549,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>106</v>
@@ -7630,7 +7652,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>108</v>
@@ -7735,7 +7757,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>114</v>
@@ -7778,7 +7800,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -7840,7 +7862,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>123</v>
@@ -7866,16 +7888,16 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -7945,13 +7967,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -7976,16 +7998,16 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8054,7 +8076,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>106</v>
@@ -8157,7 +8179,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>108</v>
@@ -8262,7 +8284,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>114</v>
@@ -8305,7 +8327,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>77</v>
@@ -8367,7 +8389,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>123</v>
@@ -8393,16 +8415,16 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8472,13 +8494,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>77</v>
@@ -8503,16 +8525,16 @@
         <v>93</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
@@ -8581,7 +8603,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>106</v>
@@ -8684,7 +8706,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>108</v>
@@ -8789,7 +8811,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>114</v>
@@ -8832,7 +8854,7 @@
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>77</v>
@@ -8894,7 +8916,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>123</v>
@@ -8920,16 +8942,16 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -8999,13 +9021,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="D65" t="s" s="2">
         <v>77</v>
@@ -9030,16 +9052,16 @@
         <v>93</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>77</v>
@@ -9108,7 +9130,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>106</v>
@@ -9211,7 +9233,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>108</v>
@@ -9316,7 +9338,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>114</v>
@@ -9359,7 +9381,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -9421,7 +9443,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>123</v>
@@ -9447,16 +9469,16 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9526,13 +9548,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>77</v>
@@ -9557,16 +9579,16 @@
         <v>93</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
@@ -9635,7 +9657,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>106</v>
@@ -9738,7 +9760,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>108</v>
@@ -9843,7 +9865,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>114</v>
@@ -9886,7 +9908,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>77</v>
@@ -9948,7 +9970,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>123</v>
@@ -9974,16 +9996,16 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10053,13 +10075,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s" s="2">
         <v>77</v>
@@ -10084,14 +10106,14 @@
         <v>93</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10160,7 +10182,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>106</v>
@@ -10263,7 +10285,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>108</v>
@@ -10368,7 +10390,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>114</v>
@@ -10411,7 +10433,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -10473,7 +10495,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>123</v>
@@ -10499,13 +10521,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10576,13 +10598,13 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>77</v>
@@ -10607,16 +10629,16 @@
         <v>93</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10685,7 +10707,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>106</v>
@@ -10788,7 +10810,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>108</v>
@@ -10893,7 +10915,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>114</v>
@@ -10936,7 +10958,7 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>77</v>
@@ -10998,7 +11020,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>123</v>
@@ -11027,13 +11049,13 @@
         <v>87</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11103,13 +11125,13 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>77</v>
@@ -11134,14 +11156,14 @@
         <v>93</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11210,7 +11232,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>106</v>
@@ -11313,7 +11335,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>108</v>
@@ -11418,7 +11440,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>114</v>
@@ -11461,7 +11483,7 @@
       </c>
       <c r="Q88" s="2"/>
       <c r="R88" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="S88" t="s" s="2">
         <v>77</v>
@@ -11523,7 +11545,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>123</v>
@@ -11549,13 +11571,13 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -11582,13 +11604,13 @@
         <v>77</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="Z89" t="s" s="2">
-        <v>77</v>
+        <v>315</v>
       </c>
       <c r="AA89" t="s" s="2">
         <v>77</v>
@@ -11626,13 +11648,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>77</v>
@@ -11657,14 +11679,14 @@
         <v>93</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>310</v>
+        <v>318</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11733,7 +11755,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>106</v>
@@ -11836,7 +11858,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>108</v>
@@ -11941,7 +11963,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11984,7 +12006,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -12046,7 +12068,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -12072,13 +12094,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L94" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="L94" t="s" s="2">
-        <v>310</v>
-      </c>
       <c r="M94" t="s" s="2">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12149,13 +12171,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -12180,14 +12202,14 @@
         <v>93</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12256,7 +12278,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -12359,7 +12381,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -12464,7 +12486,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -12507,7 +12529,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -12569,7 +12591,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -12595,13 +12617,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12672,13 +12694,13 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
@@ -12703,14 +12725,14 @@
         <v>93</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" t="s" s="2">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -12779,7 +12801,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>106</v>
@@ -12882,7 +12904,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>108</v>
@@ -12985,13 +13007,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>77</v>
@@ -13016,14 +13038,14 @@
         <v>93</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="P103" t="s" s="2">
         <v>77</v>
@@ -13092,10 +13114,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
@@ -13195,10 +13217,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13300,10 +13322,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13343,7 +13365,7 @@
       </c>
       <c r="Q106" s="2"/>
       <c r="R106" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="S106" t="s" s="2">
         <v>77</v>
@@ -13405,10 +13427,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13431,13 +13453,13 @@
         <v>77</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -13508,13 +13530,13 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B108" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D108" t="s" s="2">
         <v>77</v>
@@ -13539,14 +13561,14 @@
         <v>93</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N108" s="2"/>
       <c r="O108" t="s" s="2">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="P108" t="s" s="2">
         <v>77</v>
@@ -13615,10 +13637,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -13718,10 +13740,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13823,10 +13845,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -13866,7 +13888,7 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="S111" t="s" s="2">
         <v>77</v>
@@ -13928,10 +13950,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -13954,13 +13976,13 @@
         <v>77</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
@@ -14031,7 +14053,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B113" t="s" s="2">
         <v>114</v>
@@ -14074,7 +14096,7 @@
       </c>
       <c r="Q113" s="2"/>
       <c r="R113" t="s" s="2">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="S113" t="s" s="2">
         <v>77</v>
@@ -14136,7 +14158,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B114" t="s" s="2">
         <v>123</v>
@@ -14162,13 +14184,13 @@
         <v>77</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
@@ -14239,13 +14261,13 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>77</v>
@@ -14270,14 +14292,14 @@
         <v>93</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>77</v>
@@ -14346,7 +14368,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>106</v>
@@ -14449,7 +14471,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>108</v>
@@ -14554,7 +14576,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>114</v>
@@ -14597,7 +14619,7 @@
       </c>
       <c r="Q118" s="2"/>
       <c r="R118" t="s" s="2">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="S118" t="s" s="2">
         <v>77</v>
@@ -14659,7 +14681,7 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="B119" t="s" s="2">
         <v>123</v>
@@ -14685,13 +14707,13 @@
         <v>77</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -14762,13 +14784,13 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B120" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="D120" t="s" s="2">
         <v>77</v>
@@ -14793,14 +14815,14 @@
         <v>93</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" t="s" s="2">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="P120" t="s" s="2">
         <v>77</v>
@@ -14869,7 +14891,7 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>106</v>
@@ -14972,7 +14994,7 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>108</v>
@@ -15075,13 +15097,13 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="D123" t="s" s="2">
         <v>77</v>
@@ -15106,14 +15128,14 @@
         <v>93</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N123" s="2"/>
       <c r="O123" t="s" s="2">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="P123" t="s" s="2">
         <v>77</v>
@@ -15182,10 +15204,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -15285,10 +15307,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -15390,10 +15412,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -15433,7 +15455,7 @@
       </c>
       <c r="Q126" s="2"/>
       <c r="R126" t="s" s="2">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="S126" t="s" s="2">
         <v>77</v>
@@ -15495,10 +15517,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -15521,13 +15543,13 @@
         <v>77</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L127" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="M127" t="s" s="2">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -15598,13 +15620,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15629,14 +15651,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15705,10 +15727,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15808,10 +15830,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15913,10 +15935,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -15956,7 +15978,7 @@
       </c>
       <c r="Q131" s="2"/>
       <c r="R131" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="S131" t="s" s="2">
         <v>77</v>
@@ -16018,10 +16040,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16044,13 +16066,13 @@
         <v>77</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
@@ -16121,13 +16143,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B133" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="D133" t="s" s="2">
         <v>77</v>
@@ -16152,14 +16174,14 @@
         <v>93</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="N133" s="2"/>
       <c r="O133" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>77</v>
@@ -16228,10 +16250,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16331,10 +16353,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16434,13 +16456,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16465,14 +16487,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16541,10 +16563,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16644,10 +16666,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16749,10 +16771,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16792,7 +16814,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16854,10 +16876,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16880,13 +16902,13 @@
         <v>77</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16957,13 +16979,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -16988,14 +17010,14 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -17064,10 +17086,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17167,10 +17189,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17272,10 +17294,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17315,7 +17337,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17377,10 +17399,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B145" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="B145" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17403,13 +17425,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17480,10 +17502,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17523,7 +17545,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17585,10 +17607,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17611,13 +17633,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17688,13 +17710,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17719,14 +17741,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17795,10 +17817,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17898,10 +17920,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18001,13 +18023,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -18032,14 +18054,14 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" t="s" s="2">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="P151" t="s" s="2">
         <v>77</v>
@@ -18108,10 +18130,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18211,10 +18233,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18316,10 +18338,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18359,7 +18381,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18421,10 +18443,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18447,13 +18469,13 @@
         <v>77</v>
       </c>
       <c r="K155" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
@@ -18524,13 +18546,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18555,14 +18577,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18631,10 +18653,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18734,10 +18756,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18837,13 +18859,13 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C159" t="s" s="2">
-        <v>457</v>
+        <v>465</v>
       </c>
       <c r="D159" t="s" s="2">
         <v>77</v>
@@ -18868,14 +18890,14 @@
         <v>93</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>77</v>
@@ -18944,10 +18966,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19047,10 +19069,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" t="s" s="2">
@@ -19152,10 +19174,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19195,7 +19217,7 @@
       </c>
       <c r="Q162" s="2"/>
       <c r="R162" t="s" s="2">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="S162" t="s" s="2">
         <v>77</v>
@@ -19257,10 +19279,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19283,13 +19305,13 @@
         <v>77</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="M163" t="s" s="2">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
@@ -19360,13 +19382,13 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C164" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D164" t="s" s="2">
         <v>77</v>
@@ -19391,14 +19413,14 @@
         <v>93</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="P164" t="s" s="2">
         <v>77</v>
@@ -19467,10 +19489,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19570,10 +19592,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19675,10 +19697,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19718,7 +19740,7 @@
       </c>
       <c r="Q167" s="2"/>
       <c r="R167" t="s" s="2">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="S167" t="s" s="2">
         <v>77</v>
@@ -19780,10 +19802,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" t="s" s="2">
@@ -19806,13 +19828,13 @@
         <v>77</v>
       </c>
       <c r="K168" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L168" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="L168" t="s" s="2">
-        <v>472</v>
-      </c>
       <c r="M168" t="s" s="2">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
@@ -19883,10 +19905,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -19926,7 +19948,7 @@
       </c>
       <c r="Q169" s="2"/>
       <c r="R169" t="s" s="2">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="S169" t="s" s="2">
         <v>77</v>
@@ -19988,10 +20010,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20014,13 +20036,13 @@
         <v>77</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M170" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
@@ -20091,10 +20113,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" t="s" s="2">
@@ -20134,7 +20156,7 @@
       </c>
       <c r="Q171" s="2"/>
       <c r="R171" t="s" s="2">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="S171" t="s" s="2">
         <v>77</v>
@@ -20196,10 +20218,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20222,13 +20244,13 @@
         <v>77</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
@@ -20299,13 +20321,13 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>77</v>
@@ -20330,14 +20352,14 @@
         <v>93</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>77</v>
@@ -20406,10 +20428,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20509,10 +20531,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20612,13 +20634,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20643,14 +20665,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20719,10 +20741,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20822,10 +20844,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20927,10 +20949,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -20970,7 +20992,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -21032,10 +21054,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21058,13 +21080,13 @@
         <v>77</v>
       </c>
       <c r="K180" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="L180" t="s" s="2">
         <v>504</v>
       </c>
-      <c r="L180" t="s" s="2">
-        <v>496</v>
-      </c>
       <c r="M180" t="s" s="2">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -21135,13 +21157,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21166,14 +21188,14 @@
         <v>93</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21242,10 +21264,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21345,10 +21367,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21450,10 +21472,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21493,7 +21515,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21555,10 +21577,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21581,13 +21603,13 @@
         <v>77</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21658,13 +21680,13 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C186" t="s" s="2">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="D186" t="s" s="2">
         <v>77</v>
@@ -21689,14 +21711,14 @@
         <v>93</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" t="s" s="2">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="P186" t="s" s="2">
         <v>77</v>
@@ -21765,10 +21787,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21868,10 +21890,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -21973,10 +21995,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22016,7 +22038,7 @@
       </c>
       <c r="Q189" s="2"/>
       <c r="R189" t="s" s="2">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="S189" t="s" s="2">
         <v>77</v>
@@ -22078,10 +22100,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22104,13 +22126,13 @@
         <v>77</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
@@ -22181,10 +22203,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -22224,7 +22246,7 @@
       </c>
       <c r="Q191" s="2"/>
       <c r="R191" t="s" s="2">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="S191" t="s" s="2">
         <v>77</v>
@@ -22286,10 +22308,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22312,13 +22334,13 @@
         <v>77</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
@@ -22389,13 +22411,13 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>527</v>
+        <v>535</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C193" t="s" s="2">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="D193" t="s" s="2">
         <v>77</v>
@@ -22420,14 +22442,14 @@
         <v>93</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="N193" s="2"/>
       <c r="O193" t="s" s="2">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="P193" t="s" s="2">
         <v>77</v>
@@ -22496,10 +22518,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22599,10 +22621,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22702,13 +22724,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22733,14 +22755,14 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -22809,10 +22831,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22912,10 +22934,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23017,10 +23039,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23060,7 +23082,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -23122,10 +23144,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23148,13 +23170,13 @@
         <v>77</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -23225,13 +23247,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>77</v>
@@ -23256,14 +23278,14 @@
         <v>93</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -23332,10 +23354,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23435,10 +23457,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23538,13 +23560,13 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C204" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D204" t="s" s="2">
         <v>77</v>
@@ -23569,10 +23591,10 @@
         <v>93</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
@@ -23643,10 +23665,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>554</v>
+        <v>562</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23746,10 +23768,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23851,10 +23873,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23894,7 +23916,7 @@
       </c>
       <c r="Q207" s="2"/>
       <c r="R207" t="s" s="2">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="S207" t="s" s="2">
         <v>77</v>
@@ -23956,10 +23978,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>558</v>
+        <v>566</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -23985,13 +24007,13 @@
         <v>87</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N208" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
@@ -23999,7 +24021,7 @@
       </c>
       <c r="Q208" s="2"/>
       <c r="R208" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="S208" t="s" s="2">
         <v>77</v>
@@ -24061,13 +24083,13 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C209" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D209" t="s" s="2">
         <v>77</v>
@@ -24092,14 +24114,14 @@
         <v>93</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="N209" s="2"/>
       <c r="O209" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>77</v>
@@ -24168,10 +24190,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24271,10 +24293,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24376,10 +24398,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24419,7 +24441,7 @@
       </c>
       <c r="Q212" s="2"/>
       <c r="R212" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="S212" t="s" s="2">
         <v>77</v>
@@ -24481,10 +24503,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -24507,13 +24529,13 @@
         <v>77</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
@@ -24584,13 +24606,13 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D214" t="s" s="2">
         <v>77</v>
@@ -24615,14 +24637,14 @@
         <v>93</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="N214" s="2"/>
       <c r="O214" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>77</v>
@@ -24691,10 +24713,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24794,10 +24816,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24899,10 +24921,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24942,7 +24964,7 @@
       </c>
       <c r="Q217" s="2"/>
       <c r="R217" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="S217" t="s" s="2">
         <v>77</v>
@@ -25004,10 +25026,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -25030,13 +25052,13 @@
         <v>77</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
@@ -25107,10 +25129,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25150,7 +25172,7 @@
       </c>
       <c r="Q219" s="2"/>
       <c r="R219" t="s" s="2">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="S219" t="s" s="2">
         <v>77</v>
@@ -25212,10 +25234,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25238,13 +25260,13 @@
         <v>77</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
@@ -25315,13 +25337,13 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="D221" t="s" s="2">
         <v>77</v>
@@ -25346,14 +25368,14 @@
         <v>93</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" t="s" s="2">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="P221" t="s" s="2">
         <v>77</v>
@@ -25422,10 +25444,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25525,10 +25547,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -25628,13 +25650,13 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="D224" t="s" s="2">
         <v>77</v>
@@ -25659,10 +25681,10 @@
         <v>93</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>552</v>
+        <v>560</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -25733,10 +25755,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25836,10 +25858,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -25941,10 +25963,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -25984,7 +26006,7 @@
       </c>
       <c r="Q227" s="2"/>
       <c r="R227" t="s" s="2">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="S227" t="s" s="2">
         <v>77</v>
@@ -26046,10 +26068,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -26075,13 +26097,13 @@
         <v>87</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -26089,7 +26111,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26151,13 +26173,13 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C229" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="D229" t="s" s="2">
         <v>77</v>
@@ -26182,14 +26204,14 @@
         <v>93</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" t="s" s="2">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="P229" t="s" s="2">
         <v>77</v>
@@ -26258,10 +26280,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -26361,10 +26383,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -26466,10 +26488,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -26509,7 +26531,7 @@
       </c>
       <c r="Q232" s="2"/>
       <c r="R232" t="s" s="2">
-        <v>562</v>
+        <v>570</v>
       </c>
       <c r="S232" t="s" s="2">
         <v>77</v>
@@ -26571,10 +26593,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -26597,13 +26619,13 @@
         <v>77</v>
       </c>
       <c r="K233" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -26674,13 +26696,13 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="C234" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="D234" t="s" s="2">
         <v>77</v>
@@ -26705,14 +26727,14 @@
         <v>93</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" t="s" s="2">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="P234" t="s" s="2">
         <v>77</v>
@@ -26781,10 +26803,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -26884,10 +26906,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -26989,10 +27011,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27032,7 +27054,7 @@
       </c>
       <c r="Q237" s="2"/>
       <c r="R237" t="s" s="2">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="S237" t="s" s="2">
         <v>77</v>
@@ -27094,10 +27116,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27120,13 +27142,13 @@
         <v>77</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="N238" s="2"/>
       <c r="O238" s="2"/>
@@ -27197,10 +27219,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27240,7 +27262,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27302,10 +27324,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27328,13 +27350,13 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27405,10 +27427,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27448,7 +27470,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27510,10 +27532,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27536,13 +27558,13 @@
         <v>77</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -27613,7 +27635,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>610</v>
+        <v>618</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>114</v>
@@ -27656,7 +27678,7 @@
       </c>
       <c r="Q243" s="2"/>
       <c r="R243" t="s" s="2">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="S243" t="s" s="2">
         <v>77</v>
@@ -27718,7 +27740,7 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>612</v>
+        <v>620</v>
       </c>
       <c r="B244" t="s" s="2">
         <v>123</v>
@@ -27744,13 +27766,13 @@
         <v>77</v>
       </c>
       <c r="K244" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L244" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M244" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N244" s="2"/>
       <c r="O244" s="2"/>
@@ -27952,13 +27974,13 @@
         <v>77</v>
       </c>
       <c r="K246" t="s" s="2">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="L246" t="s" s="2">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="M246" t="s" s="2">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="N246" s="2"/>
       <c r="O246" s="2"/>
